--- a/etc/pre-storm-content.xlsx
+++ b/etc/pre-storm-content.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>key</t>
   </si>
@@ -34,55 +34,88 @@
     <t>banner_text</t>
   </si>
   <si>
+    <t>splash_msg</t>
+  </si>
+  <si>
+    <t>btn_text</t>
+  </si>
+  <si>
+    <t>centers_tab</t>
+  </si>
+  <si>
+    <t>filter_centers</t>
+  </si>
+  <si>
+    <t>centers_msg</t>
+  </si>
+  <si>
+    <t>legend_msg</t>
+  </si>
+  <si>
+    <t>legend_center</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>user_in_x_zone</t>
+  </si>
+  <si>
+    <t>You are not located in an Evacuation Zone</t>
+  </si>
+  <si>
+    <t>user_zone_unkown</t>
+  </si>
+  <si>
+    <t>Zone Finder cannot determine Zone for your address.&lt;br&gt;Try alternative address or determine Zone by examining map and clicking on your location.</t>
+  </si>
+  <si>
+    <t>user_zone_unkown_311</t>
+  </si>
+  <si>
+    <t>Zone Finder cannot determine Zone for your address.&lt;br&gt;Try alternative address.</t>
+  </si>
+  <si>
+    <t>user_zone</t>
+  </si>
+  <si>
+    <t>You are located in Zone ${zone}</t>
+  </si>
+  <si>
+    <t>evac_order</t>
+  </si>
+  <si>
+    <t>You are required to evacuate</t>
+  </si>
+  <si>
+    <t>no_evac_order</t>
+  </si>
+  <si>
+    <t>No evacuation order currently in effect</t>
+  </si>
+  <si>
     <t>Hurricane Evacuation Zone Finder</t>
   </si>
   <si>
-    <t>splash_msg</t>
-  </si>
-  <si>
-    <t>No evacuation order currently in effect</t>
-  </si>
-  <si>
-    <t>btn_text</t>
-  </si>
-  <si>
     <t>&lt;span&gt;view map&lt;/span&gt;&lt;br&gt;&lt;span&gt;to find your evacuation zone&lt;/span&gt;</t>
   </si>
   <si>
-    <t>centers_tab</t>
-  </si>
-  <si>
     <t>evacuation&lt;br&gt;centers</t>
   </si>
   <si>
-    <t>filter_centers</t>
-  </si>
-  <si>
     <t>centers</t>
   </si>
   <si>
-    <t>centers_msg</t>
-  </si>
-  <si>
     <t>If you are required to evacuate, it is recommended that you shelter at the home of friends or family outside of the evacuation area. If you wish to go to a public facility, select any evacuation center from the following list and click for travel directions.</t>
   </si>
   <si>
-    <t>legend_msg</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Use the NYC Hurricane Evacuation Zone Finder to find out if your address is in a hurricane evacuation zone. The best way to be prepared for the possibility of a hurricane evacuation is to know your evacuation zone, and plan your destination and travel routes ahead of time. Zones are color-coded and labeled 1, 2, 3, 4, 5, and 6 when represented on a map.&lt;/p&gt;&lt;p&gt;Information on evacuation centers is subject to change. Please revisit this site for updated reports on building status and wheelchair accessibility features.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>legend_center</t>
-  </si>
-  <si>
     <t>evacuation center</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -927,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -951,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,67 +992,115 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yhxeFKXQSv0/Pnw3xBJ4nLYh1fKrZFzO7ZWhpfL0CS3BipMyAaRFmCLudnVhkiuiWciLvPOvPnxNw9ixmzriyw==" saltValue="MLHPIcHEQMClU6/dH5n7aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Ib1FX+97A8np0jQLzazlvIQB+nZOsNKWpHQBoH12s29/W1sTSxNIrRzuWHrMk2b3sV3MDHRSrdvfN3oQkbYkw==" saltValue="fx6/ZsSWEU5pDRu5yJhLQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -1049,12 +1130,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/etc/pre-storm-content.xlsx
+++ b/etc/pre-storm-content.xlsx
@@ -968,7 +968,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Ib1FX+97A8np0jQLzazlvIQB+nZOsNKWpHQBoH12s29/W1sTSxNIrRzuWHrMk2b3sV3MDHRSrdvfN3oQkbYkw==" saltValue="fx6/ZsSWEU5pDRu5yJhLQw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UTMUg0lkZB7aRQ3CB1KV1qv2W6zUV1S/jk4ISnTwQtVgXV5ySkoabBJWKMsJ4NMsvJ1vdzG7IKgB1Xk+ERAmUA==" saltValue="/hSVp3TidAAEJPutEmVbiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>

--- a/etc/pre-storm-content.xlsx
+++ b/etc/pre-storm-content.xlsx
@@ -103,9 +103,6 @@
     <t>&lt;span&gt;view map&lt;/span&gt;&lt;br&gt;&lt;span&gt;to find your evacuation zone&lt;/span&gt;</t>
   </si>
   <si>
-    <t>evacuation&lt;br&gt;centers</t>
-  </si>
-  <si>
     <t>centers</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>evacuation center</t>
+  </si>
+  <si>
+    <t>evacuation centers</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
